--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登陆后获取的用户信息，其他页面没有办法获取到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有页面的表头居中</t>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面的表格表头居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始申诉没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始申诉添加提示语：确定开始申诉么？
+申诉完毕后添加提示语：申诉已开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据对应页面添加新增和修改的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号管理添加数据来源列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.添加和修改已经做了，查询和编辑的“使用与否”需要添加
+2. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,16 +126,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,66 +457,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="54">
-      <c r="A6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="54">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,7 +460,7 @@
   <dimension ref="A2:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -592,7 +592,9 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">

--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,24 +71,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础数据对应页面添加新增和修改的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期号管理添加数据来源列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.添加和修改已经做了，查询和编辑的“使用与否”需要添加
-2. </t>
+    <t xml:space="preserve">1.添加和修改已经做了，查询和编辑的“使用与否（勾选框控件）”需要添加
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的字号调小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌添加修改和新增的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌查询修改为按照权限进行查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +113,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,17 +183,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -281,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,20 +486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="65.5" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1">
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -483,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -495,7 +525,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -507,7 +537,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -519,7 +549,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -531,7 +561,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="54">
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -542,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -557,7 +587,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -567,7 +597,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -577,208 +607,236 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="1"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -788,12 +846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,12 +859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,38 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当保存报错的时候一直是Loading的状态，应该提示报错信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的弹出框太简单，参照其他项目做一个好看些的样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项提示语的处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加登陆者个人信息修改的页面，包括头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账号登记页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单左侧图标需要按照业务模块修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与否和权限类型需要添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +522,7 @@
   <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +689,9 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
@@ -665,7 +699,9 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
@@ -673,7 +709,9 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
     </row>
@@ -681,7 +719,9 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
@@ -689,15 +729,23 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>

--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="轻松拍修改内容" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,214 @@
   </si>
   <si>
     <t>使用与否和权限类型需要添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他属性与否，得分与否根据返回的bool值显示成勾选与否。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果添加品牌名称列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加和编辑的弹出框不能拖拽，需要改成可以拖拽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑和添加页面添加品牌(下拉框),得分与否（勾选框）其他属性与否（勾选框）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面点击保存时报错，提示saveEasyPhotoProject()未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页控件的当前第x页，改成居中，现在是靠左的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面初始化时默认进行查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面的必输项为期号代码，期号名称，年份，季度，年份和季度改成下拉框的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记为*改成红色，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面的的表头和内容都改成居中的样式，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号的名称列宽度调整小一些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理名称列宽度调整小一些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面列表中的时间格式显示到秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有涉及到邮箱和手机号的要进行格式验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑的时候账号，名称，密码，电话，到期时间是必须输入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面添加到期时间（日历控件，选择时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master/GetUserInfoShop 添加了参数RoleType，App端需要进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面的查询条件和按钮分为2行显示，按钮在第一行，靠右，查询条件在第二行靠左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面的左上角的标题字号改成小字号加粗，放到第一行。或者把左上角的标题删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号经销商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件的期号调小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的时候选择经销商改成多选，显示的时候也改成多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查类型管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增和编辑的时候弹出到账号经销商设置页面，弹出页面有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号调小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件的检查类型删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片名称管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注新增和编辑时包含的内容:备注名称，新增与否，检查类型，当新增与否为“是”时检查类型不能选择，赋值为空，当新增类型为“否”时，检查类型可以选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片名称新增和编辑时包含的内容:照片名称，新增与否，检查类型，当新增与否为“是”时检查类型不能选择，赋值为空，当新增类型为“否”时，检查类型可以选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询备注名称列调小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询照片名称调小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的名称改成照片名称管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他属性管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件的其他属性类型删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他属性保存和修改的时候没有传InUserId和ModifyUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他属性类型和其他属性编号调整一下位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他属性新增的时候，类型，代码，名称都是必须输入的，编辑的时候只能编辑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有查询结果前面添加序号列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单删除改成勾选批量删除的方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +364,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,9 +442,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,7 +469,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,10 +755,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F46" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,19 +1750,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -917,4 +1764,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>品牌账号报错，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>清单删除改成勾选批量删除的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导出和下载照片的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +762,7 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1306,8 +1310,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>

--- a/修改内容.xlsx
+++ b/修改内容.xlsx
@@ -460,7 +460,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,13 +800,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -814,27 +814,27 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>23</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -842,14 +842,12 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -858,13 +856,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -873,13 +871,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -888,58 +886,56 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -947,12 +943,14 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -961,13 +959,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -976,28 +974,26 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1005,12 +1001,14 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>21</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1019,13 +1017,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1033,14 +1031,12 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1049,13 +1045,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1064,13 +1060,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1079,13 +1075,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1094,28 +1090,28 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1123,14 +1119,12 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1138,27 +1132,25 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1168,10 +1160,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1181,23 +1173,23 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1205,25 +1197,27 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3">
+        <v>12</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1231,12 +1225,14 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3">
+        <v>14</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1244,12 +1240,14 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3">
+        <v>19</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1257,12 +1255,14 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3">
+        <v>20</v>
+      </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1272,23 +1272,23 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1298,10 +1298,10 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1311,10 +1311,10 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1379,6 +1379,9 @@
       <c r="F46" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:G39">
+    <sortCondition ref="B3"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
